--- a/modelos/OBAGRA4491074/OBAGRA4491074_Sell in_metricas.xlsx
+++ b/modelos/OBAGRA4491074/OBAGRA4491074_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45020</v>
       </c>
       <c r="B2" t="n">
-        <v>66.99458309743696</v>
+        <v>67.07860758859343</v>
       </c>
       <c r="C2" t="n">
-        <v>37.90898099937145</v>
+        <v>37.73723740602265</v>
       </c>
       <c r="D2" t="n">
-        <v>96.08462487850147</v>
+        <v>97.55556837805393</v>
       </c>
       <c r="E2" t="n">
         <v>66</v>
@@ -496,13 +496,13 @@
         <v>45027</v>
       </c>
       <c r="B3" t="n">
-        <v>67.25270568982614</v>
+        <v>67.42410061822264</v>
       </c>
       <c r="C3" t="n">
-        <v>35.88715433340833</v>
+        <v>34.92314226102121</v>
       </c>
       <c r="D3" t="n">
-        <v>98.47803795979587</v>
+        <v>97.29566108345296</v>
       </c>
       <c r="E3" t="n">
         <v>126</v>
@@ -516,13 +516,13 @@
         <v>45034</v>
       </c>
       <c r="B4" t="n">
-        <v>74.11387765608266</v>
+        <v>74.16919375526068</v>
       </c>
       <c r="C4" t="n">
-        <v>40.40959984161503</v>
+        <v>42.16089984439841</v>
       </c>
       <c r="D4" t="n">
-        <v>107.5304450844582</v>
+        <v>105.8651612621297</v>
       </c>
       <c r="E4" t="n">
         <v>114</v>
@@ -536,13 +536,13 @@
         <v>45040</v>
       </c>
       <c r="B5" t="n">
-        <v>52.19646262741869</v>
+        <v>52.40842023394897</v>
       </c>
       <c r="C5" t="n">
-        <v>18.62599250007461</v>
+        <v>18.58784638002243</v>
       </c>
       <c r="D5" t="n">
-        <v>84.87414021070535</v>
+        <v>82.64774921733472</v>
       </c>
       <c r="E5" t="n">
         <v>108</v>
@@ -556,13 +556,13 @@
         <v>45048</v>
       </c>
       <c r="B6" t="n">
-        <v>83.85593971639759</v>
+        <v>83.92451448677296</v>
       </c>
       <c r="C6" t="n">
-        <v>51.72412610972336</v>
+        <v>51.53803577551471</v>
       </c>
       <c r="D6" t="n">
-        <v>116.7648420970422</v>
+        <v>120.2092489305397</v>
       </c>
       <c r="E6" t="n">
         <v>126</v>
@@ -576,13 +576,13 @@
         <v>45062</v>
       </c>
       <c r="B7" t="n">
-        <v>90.4048618213946</v>
+        <v>90.43435804076422</v>
       </c>
       <c r="C7" t="n">
-        <v>56.1287944056114</v>
+        <v>56.3154913847825</v>
       </c>
       <c r="D7" t="n">
-        <v>125.2273322494918</v>
+        <v>123.889381244639</v>
       </c>
       <c r="E7" t="n">
         <v>90</v>
@@ -657,22 +657,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>3114.034783293079</v>
+        <v>3090.423740885215</v>
       </c>
       <c r="C2" t="n">
-        <v>55.80353737258131</v>
+        <v>55.59157976605103</v>
       </c>
       <c r="D2" t="n">
-        <v>55.80353737258131</v>
+        <v>55.59157976605103</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5166994201164936</v>
+        <v>0.5147368496856577</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5166994201164936</v>
+        <v>0.5147368496856577</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6966887590067193</v>
+        <v>0.6931254566932714</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -683,22 +683,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>1363.884454044034</v>
+        <v>1357.865531380319</v>
       </c>
       <c r="C3" t="n">
-        <v>36.93080630102779</v>
+        <v>36.84922701197841</v>
       </c>
       <c r="D3" t="n">
-        <v>28.43538437130503</v>
+        <v>28.39903135382028</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2340342416371349</v>
+        <v>0.2338764583896642</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3344766689174795</v>
+        <v>0.3339324247081511</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2906280828901868</v>
+        <v>0.2901823741375225</v>
       </c>
       <c r="H3" t="n">
         <v>0.3999999999999999</v>

--- a/modelos/OBAGRA4491074/OBAGRA4491074_Sell in_metricas.xlsx
+++ b/modelos/OBAGRA4491074/OBAGRA4491074_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45020</v>
       </c>
       <c r="B2" t="n">
-        <v>67.07860758859343</v>
+        <v>67.07860758859309</v>
       </c>
       <c r="C2" t="n">
-        <v>37.73723740602265</v>
+        <v>35.90191835013933</v>
       </c>
       <c r="D2" t="n">
-        <v>97.55556837805393</v>
+        <v>99.58901844913663</v>
       </c>
       <c r="E2" t="n">
         <v>66</v>
@@ -496,13 +496,13 @@
         <v>45027</v>
       </c>
       <c r="B3" t="n">
-        <v>67.42410061822264</v>
+        <v>67.42415395772825</v>
       </c>
       <c r="C3" t="n">
-        <v>34.92314226102121</v>
+        <v>37.70131305490632</v>
       </c>
       <c r="D3" t="n">
-        <v>97.29566108345296</v>
+        <v>98.33351622999996</v>
       </c>
       <c r="E3" t="n">
         <v>126</v>
@@ -516,13 +516,13 @@
         <v>45034</v>
       </c>
       <c r="B4" t="n">
-        <v>74.16919375526068</v>
+        <v>74.16919375536916</v>
       </c>
       <c r="C4" t="n">
-        <v>42.16089984439841</v>
+        <v>41.51313202132649</v>
       </c>
       <c r="D4" t="n">
-        <v>105.8651612621297</v>
+        <v>105.417689455209</v>
       </c>
       <c r="E4" t="n">
         <v>114</v>
@@ -536,13 +536,13 @@
         <v>45040</v>
       </c>
       <c r="B5" t="n">
-        <v>52.40842023394897</v>
+        <v>52.40842027692379</v>
       </c>
       <c r="C5" t="n">
-        <v>18.58784638002243</v>
+        <v>22.15347564250946</v>
       </c>
       <c r="D5" t="n">
-        <v>82.64774921733472</v>
+        <v>85.62651971080454</v>
       </c>
       <c r="E5" t="n">
         <v>108</v>
@@ -556,13 +556,13 @@
         <v>45048</v>
       </c>
       <c r="B6" t="n">
-        <v>83.92451448677296</v>
+        <v>83.92451553569754</v>
       </c>
       <c r="C6" t="n">
-        <v>51.53803577551471</v>
+        <v>52.73468132115727</v>
       </c>
       <c r="D6" t="n">
-        <v>120.2092489305397</v>
+        <v>116.6746370728588</v>
       </c>
       <c r="E6" t="n">
         <v>126</v>
@@ -576,13 +576,13 @@
         <v>45062</v>
       </c>
       <c r="B7" t="n">
-        <v>90.43435804076422</v>
+        <v>90.4343580407634</v>
       </c>
       <c r="C7" t="n">
-        <v>56.3154913847825</v>
+        <v>58.75988962905689</v>
       </c>
       <c r="D7" t="n">
-        <v>123.889381244639</v>
+        <v>123.6438255862774</v>
       </c>
       <c r="E7" t="n">
         <v>90</v>
@@ -657,22 +657,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>3090.423740885215</v>
+        <v>3090.423736107138</v>
       </c>
       <c r="C2" t="n">
-        <v>55.59157976605103</v>
+        <v>55.59157972307621</v>
       </c>
       <c r="D2" t="n">
-        <v>55.59157976605103</v>
+        <v>55.59157972307621</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5147368496856577</v>
+        <v>0.5147368492877427</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5147368496856577</v>
+        <v>0.5147368492877427</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6931254566932714</v>
+        <v>0.6931254559717595</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -683,22 +683,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>1357.865531380319</v>
+        <v>1357.86426396175</v>
       </c>
       <c r="C3" t="n">
-        <v>36.84922701197841</v>
+        <v>36.84920981461814</v>
       </c>
       <c r="D3" t="n">
-        <v>28.39903135382028</v>
+        <v>28.39902047611231</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2338764583896642</v>
+        <v>0.2338763720586294</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3339324247081511</v>
+        <v>0.3339324163833529</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2901823741375225</v>
+        <v>0.2901822280275643</v>
       </c>
       <c r="H3" t="n">
         <v>0.3999999999999999</v>

--- a/modelos/OBAGRA4491074/OBAGRA4491074_Sell in_metricas.xlsx
+++ b/modelos/OBAGRA4491074/OBAGRA4491074_Sell in_metricas.xlsx
@@ -479,10 +479,10 @@
         <v>67.07860758859309</v>
       </c>
       <c r="C2" t="n">
-        <v>35.90191835013933</v>
+        <v>36.22796379927354</v>
       </c>
       <c r="D2" t="n">
-        <v>99.58901844913663</v>
+        <v>97.17853412551648</v>
       </c>
       <c r="E2" t="n">
         <v>66</v>
@@ -499,10 +499,10 @@
         <v>67.42415395772825</v>
       </c>
       <c r="C3" t="n">
-        <v>37.70131305490632</v>
+        <v>39.13711749998573</v>
       </c>
       <c r="D3" t="n">
-        <v>98.33351622999996</v>
+        <v>99.60156164506886</v>
       </c>
       <c r="E3" t="n">
         <v>126</v>
@@ -519,10 +519,10 @@
         <v>74.16919375536916</v>
       </c>
       <c r="C4" t="n">
-        <v>41.51313202132649</v>
+        <v>41.68346866507387</v>
       </c>
       <c r="D4" t="n">
-        <v>105.417689455209</v>
+        <v>106.2735140050059</v>
       </c>
       <c r="E4" t="n">
         <v>114</v>
@@ -539,10 +539,10 @@
         <v>52.40842027692379</v>
       </c>
       <c r="C5" t="n">
-        <v>22.15347564250946</v>
+        <v>20.60826871541534</v>
       </c>
       <c r="D5" t="n">
-        <v>85.62651971080454</v>
+        <v>83.54949137592699</v>
       </c>
       <c r="E5" t="n">
         <v>108</v>
@@ -559,10 +559,10 @@
         <v>83.92451553569754</v>
       </c>
       <c r="C6" t="n">
-        <v>52.73468132115727</v>
+        <v>49.45578571830534</v>
       </c>
       <c r="D6" t="n">
-        <v>116.6746370728588</v>
+        <v>115.1226767394964</v>
       </c>
       <c r="E6" t="n">
         <v>126</v>
@@ -579,10 +579,10 @@
         <v>90.4343580407634</v>
       </c>
       <c r="C7" t="n">
-        <v>58.75988962905689</v>
+        <v>54.55937884624475</v>
       </c>
       <c r="D7" t="n">
-        <v>123.6438255862774</v>
+        <v>123.368701804364</v>
       </c>
       <c r="E7" t="n">
         <v>90</v>
